--- a/My Training for.xlsx
+++ b/My Training for.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnyaneshwat2\Desktop\DT_WorkSpace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -391,6 +391,9 @@
   <si>
     <t xml:space="preserve">   o Within Matlab libraries, defining constants such that 
                       they are included in SWC.c and not separate file</t>
+  </si>
+  <si>
+    <t>shadow assignment completed</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -606,26 +609,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -658,6 +643,45 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -667,31 +691,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -974,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,518 +994,540 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="22">
         <v>3</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="25"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="25"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="25"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="26"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="36">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="19">
         <v>3</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="25"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="25"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="26"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="19">
         <v>3</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="19">
         <v>4</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="19">
         <v>4</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="25">
         <v>1</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="4">
         <v>5</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="6">
         <v>1</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="4">
         <v>6</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="4">
         <v>1</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="36">
         <v>7</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="19">
         <v>3</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="A34" s="4">
         <v>8</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="16">
         <v>3</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="9"/>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="4">
         <v>9</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="16">
         <v>2</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F35" s="23" t="s">
+      <c r="F35" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="9"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="A36" s="4">
         <v>10</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="6">
         <v>1</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="9"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+      <c r="A37" s="11">
         <v>11</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="11"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="37">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="G12:G19"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="G24:G33"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="G8:G11"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="F20:F23"/>
@@ -1516,20 +1544,6 @@
     <mergeCell ref="E20:E23"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="G12:G19"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="G24:G33"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A19"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
